--- a/CSV obtenidos/J4_heatmaps_jugadores.xlsx
+++ b/CSV obtenidos/J4_heatmaps_jugadores.xlsx
@@ -7,21 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sebastián Rodríguez" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gabriel Costa" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cecilio Waterman" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Freytes" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renzo Garces" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gabriel Costa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sebastián Rodríguez" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Freytes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Serna" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cecilio Waterman" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hernán Barcos" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Catriel Cabellos" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Serna" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aldair Fuentes" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jesús Castillo" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ángel De la Cruz" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ricardo Lagos" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Franco Zanelatto" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adrián Arregui" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Moyano" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renzo Garces" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adrián Arregui" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aldair Fuentes" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Franco Zanelatto" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jesús Castillo" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Moyano" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ángel De la Cruz" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ricardo Lagos" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,175 +461,175 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B10" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B15" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B19" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B20" t="n">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B22" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B23" t="n">
         <v>42</v>
@@ -637,282 +637,346 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B24" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B26" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B28" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B29" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B30" t="n">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B36" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B38" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B41" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B42" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B43" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B44" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B46" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B47" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>36</v>
+      </c>
+      <c r="B48" t="n">
         <v>41</v>
-      </c>
-      <c r="B48" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B49" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B51" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B53" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B57" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>57</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>78</v>
+      </c>
+      <c r="B59" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>90</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64</v>
+      </c>
+      <c r="B61" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>87</v>
+      </c>
+      <c r="B62" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>91</v>
+      </c>
+      <c r="B63" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53</v>
+      </c>
+      <c r="B64" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60</v>
+      </c>
+      <c r="B65" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>83</v>
+      </c>
+      <c r="B66" t="n">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -921,6 +985,108 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B2" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>85</v>
+      </c>
+      <c r="B4" t="n">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1055,7 +1221,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1454,7 +1667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1877,13 +2090,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,26 +2118,458 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B2" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B4" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B6" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>73</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>70</v>
+      </c>
+      <c r="B8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B9" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>23</v>
+      </c>
+      <c r="B10" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34</v>
+      </c>
+      <c r="B15" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>68</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>43</v>
+      </c>
+      <c r="B19" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>72</v>
+      </c>
+      <c r="B20" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>70</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45</v>
+      </c>
+      <c r="B22" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>67</v>
+      </c>
+      <c r="B24" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>71</v>
+      </c>
+      <c r="B25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>80</v>
+      </c>
+      <c r="B28" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>70</v>
+      </c>
+      <c r="B29" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>67</v>
+      </c>
+      <c r="B30" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>45</v>
+      </c>
+      <c r="B33" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>79</v>
+      </c>
+      <c r="B36" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>95</v>
+      </c>
+      <c r="B39" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33</v>
+      </c>
+      <c r="B40" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53</v>
+      </c>
+      <c r="B42" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>25</v>
+      </c>
+      <c r="B43" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53</v>
+      </c>
+      <c r="B45" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>49</v>
+      </c>
+      <c r="B46" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41</v>
+      </c>
+      <c r="B48" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52</v>
+      </c>
+      <c r="B49" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38</v>
+      </c>
+      <c r="B50" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38</v>
+      </c>
+      <c r="B51" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36</v>
+      </c>
+      <c r="B52" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>90</v>
+      </c>
+      <c r="B53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>44</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>44</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>99</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>61</v>
+      </c>
+      <c r="B57" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1932,13 +2577,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1960,127 +2605,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="n">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B14" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B17" t="n">
         <v>29</v>
@@ -2088,111 +2733,111 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B24" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B25" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B30" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" t="n">
         <v>65</v>
@@ -2200,258 +2845,226 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B32" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B33" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B35" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B36" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B41" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B42" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B44" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B45" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B47" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B49" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B50" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B51" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B52" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B55" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B57" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B58" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B59" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>27</v>
-      </c>
-      <c r="B60" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>24</v>
-      </c>
-      <c r="B61" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>95</v>
-      </c>
-      <c r="B62" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2459,13 +3072,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,18 +3100,434 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>97</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>77</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B6" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>91</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>96</v>
+      </c>
+      <c r="B8" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>26</v>
+      </c>
+      <c r="B10" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>91</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>91</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>90</v>
+      </c>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>69</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>61</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>78</v>
+      </c>
+      <c r="B22" t="n">
         <v>23</v>
       </c>
-      <c r="B3" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>46</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>93</v>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>77</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55</v>
+      </c>
+      <c r="B30" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>51</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>78</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>91</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>79</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>61</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>43</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>61</v>
+      </c>
+      <c r="B41" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>22</v>
+      </c>
+      <c r="B43" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>22</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>69</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>30</v>
+      </c>
+      <c r="B49" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2506,558 +3535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>60</v>
-      </c>
-      <c r="B3" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>62</v>
-      </c>
-      <c r="B4" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>64</v>
-      </c>
-      <c r="B5" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>74</v>
-      </c>
-      <c r="B6" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>44</v>
-      </c>
-      <c r="B7" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>44</v>
-      </c>
-      <c r="B8" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>71</v>
-      </c>
-      <c r="B9" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>59</v>
-      </c>
-      <c r="B10" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>53</v>
-      </c>
-      <c r="B11" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>99</v>
-      </c>
-      <c r="B12" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>37</v>
-      </c>
-      <c r="B13" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>42</v>
-      </c>
-      <c r="B14" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>71</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>45</v>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>49</v>
-      </c>
-      <c r="B17" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>49</v>
-      </c>
-      <c r="B18" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>99</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>99</v>
-      </c>
-      <c r="B20" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>88</v>
-      </c>
-      <c r="B21" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>57</v>
-      </c>
-      <c r="B22" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>38</v>
-      </c>
-      <c r="B23" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>76</v>
-      </c>
-      <c r="B24" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>73</v>
-      </c>
-      <c r="B25" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>75</v>
-      </c>
-      <c r="B26" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>53</v>
-      </c>
-      <c r="B28" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>53</v>
-      </c>
-      <c r="B29" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>99</v>
-      </c>
-      <c r="B30" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>32</v>
-      </c>
-      <c r="B31" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>62</v>
-      </c>
-      <c r="B32" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>60</v>
-      </c>
-      <c r="B33" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>67</v>
-      </c>
-      <c r="B34" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>43</v>
-      </c>
-      <c r="B35" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>61</v>
-      </c>
-      <c r="B36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>60</v>
-      </c>
-      <c r="B37" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>77</v>
-      </c>
-      <c r="B38" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>73</v>
-      </c>
-      <c r="B39" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>52</v>
-      </c>
-      <c r="B41" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>75</v>
-      </c>
-      <c r="B42" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>40</v>
-      </c>
-      <c r="B43" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>40</v>
-      </c>
-      <c r="B44" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>45</v>
-      </c>
-      <c r="B45" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>56</v>
-      </c>
-      <c r="B46" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>60</v>
-      </c>
-      <c r="B47" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>36</v>
-      </c>
-      <c r="B48" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>36</v>
-      </c>
-      <c r="B49" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>36</v>
-      </c>
-      <c r="B50" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>43</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>55</v>
-      </c>
-      <c r="B52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>50</v>
-      </c>
-      <c r="B53" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>18</v>
-      </c>
-      <c r="B54" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>57</v>
-      </c>
-      <c r="B55" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>52</v>
-      </c>
-      <c r="B56" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>99</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>59</v>
-      </c>
-      <c r="B58" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>78</v>
-      </c>
-      <c r="B59" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>90</v>
-      </c>
-      <c r="B60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>64</v>
-      </c>
-      <c r="B61" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>87</v>
-      </c>
-      <c r="B62" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>91</v>
-      </c>
-      <c r="B63" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>53</v>
-      </c>
-      <c r="B64" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>60</v>
-      </c>
-      <c r="B65" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>83</v>
-      </c>
-      <c r="B66" t="n">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3417,1116 +3895,6 @@
       </c>
       <c r="B43" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B2" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B3" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>89</v>
-      </c>
-      <c r="B4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>59</v>
-      </c>
-      <c r="B5" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>61</v>
-      </c>
-      <c r="B6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>51</v>
-      </c>
-      <c r="B7" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>33</v>
-      </c>
-      <c r="B8" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>23</v>
-      </c>
-      <c r="B9" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>34</v>
-      </c>
-      <c r="B10" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>43</v>
-      </c>
-      <c r="B12" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>98</v>
-      </c>
-      <c r="B13" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>46</v>
-      </c>
-      <c r="B14" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>44</v>
-      </c>
-      <c r="B15" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>61</v>
-      </c>
-      <c r="B16" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>95</v>
-      </c>
-      <c r="B17" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>46</v>
-      </c>
-      <c r="B18" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>40</v>
-      </c>
-      <c r="B20" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>33</v>
-      </c>
-      <c r="B21" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>23</v>
-      </c>
-      <c r="B22" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>41</v>
-      </c>
-      <c r="B23" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>41</v>
-      </c>
-      <c r="B24" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>45</v>
-      </c>
-      <c r="B25" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>8</v>
-      </c>
-      <c r="B26" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>8</v>
-      </c>
-      <c r="B27" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>28</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>53</v>
-      </c>
-      <c r="B29" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>52</v>
-      </c>
-      <c r="B30" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>26</v>
-      </c>
-      <c r="B31" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>26</v>
-      </c>
-      <c r="B32" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>26</v>
-      </c>
-      <c r="B34" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>26</v>
-      </c>
-      <c r="B35" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>32</v>
-      </c>
-      <c r="B36" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>82</v>
-      </c>
-      <c r="B37" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>61</v>
-      </c>
-      <c r="B38" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>20</v>
-      </c>
-      <c r="B39" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>27</v>
-      </c>
-      <c r="B40" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>89</v>
-      </c>
-      <c r="B41" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>92</v>
-      </c>
-      <c r="B42" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>25</v>
-      </c>
-      <c r="B43" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>23</v>
-      </c>
-      <c r="B44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>26</v>
-      </c>
-      <c r="B45" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>21</v>
-      </c>
-      <c r="B46" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>62</v>
-      </c>
-      <c r="B47" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>31</v>
-      </c>
-      <c r="B48" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>33</v>
-      </c>
-      <c r="B49" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>38</v>
-      </c>
-      <c r="B50" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>26</v>
-      </c>
-      <c r="B51" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>15</v>
-      </c>
-      <c r="B52" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>10</v>
-      </c>
-      <c r="B53" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>11</v>
-      </c>
-      <c r="B54" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>39</v>
-      </c>
-      <c r="B55" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>19</v>
-      </c>
-      <c r="B56" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>12</v>
-      </c>
-      <c r="B57" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>9</v>
-      </c>
-      <c r="B58" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>68</v>
-      </c>
-      <c r="B59" t="n">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B2" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>29</v>
-      </c>
-      <c r="B3" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B4" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>92</v>
-      </c>
-      <c r="B5" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>57</v>
-      </c>
-      <c r="B6" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>25</v>
-      </c>
-      <c r="B7" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>29</v>
-      </c>
-      <c r="B8" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>29</v>
-      </c>
-      <c r="B9" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>43</v>
-      </c>
-      <c r="B10" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>38</v>
-      </c>
-      <c r="B11" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>38</v>
-      </c>
-      <c r="B12" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>24</v>
-      </c>
-      <c r="B13" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>40</v>
-      </c>
-      <c r="B14" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>39</v>
-      </c>
-      <c r="B18" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>33</v>
-      </c>
-      <c r="B20" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>38</v>
-      </c>
-      <c r="B21" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>73</v>
-      </c>
-      <c r="B22" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>72</v>
-      </c>
-      <c r="B23" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>39</v>
-      </c>
-      <c r="B24" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>21</v>
-      </c>
-      <c r="B25" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>16</v>
-      </c>
-      <c r="B26" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>17</v>
-      </c>
-      <c r="B27" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>56</v>
-      </c>
-      <c r="B28" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>47</v>
-      </c>
-      <c r="B29" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>22</v>
-      </c>
-      <c r="B30" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>37</v>
-      </c>
-      <c r="B31" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>40</v>
-      </c>
-      <c r="B32" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>21</v>
-      </c>
-      <c r="B33" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>23</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>14</v>
-      </c>
-      <c r="B35" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>32</v>
-      </c>
-      <c r="B36" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>22</v>
-      </c>
-      <c r="B37" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>44</v>
-      </c>
-      <c r="B38" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>26</v>
-      </c>
-      <c r="B39" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>25</v>
-      </c>
-      <c r="B40" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>16</v>
-      </c>
-      <c r="B43" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>28</v>
-      </c>
-      <c r="B44" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>41</v>
-      </c>
-      <c r="B45" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>30</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>30</v>
-      </c>
-      <c r="B47" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>77</v>
-      </c>
-      <c r="B48" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>77</v>
-      </c>
-      <c r="B49" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>80</v>
-      </c>
-      <c r="B50" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>90</v>
-      </c>
-      <c r="B51" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>93</v>
-      </c>
-      <c r="B52" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>32</v>
-      </c>
-      <c r="B53" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>30</v>
-      </c>
-      <c r="B54" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>21</v>
-      </c>
-      <c r="B55" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>42</v>
-      </c>
-      <c r="B56" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>13</v>
-      </c>
-      <c r="B57" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>98</v>
-      </c>
-      <c r="B58" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>23</v>
-      </c>
-      <c r="B59" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>6</v>
-      </c>
-      <c r="B60" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>6</v>
-      </c>
-      <c r="B61" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>6</v>
-      </c>
-      <c r="B62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>37</v>
-      </c>
-      <c r="B63" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>34</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>20</v>
-      </c>
-      <c r="B65" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>21</v>
-      </c>
-      <c r="B66" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>27</v>
-      </c>
-      <c r="B67" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>36</v>
-      </c>
-      <c r="B68" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>10</v>
-      </c>
-      <c r="B69" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>37</v>
-      </c>
-      <c r="B70" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>61</v>
-      </c>
-      <c r="B71" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>24</v>
-      </c>
-      <c r="B72" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>24</v>
-      </c>
-      <c r="B73" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>45</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5250,7 +4618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5272,218 +4640,218 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B14" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -5491,44 +4859,44 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B33" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B34" t="n">
         <v>4</v>
@@ -5536,170 +4904,322 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B50" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42</v>
+      </c>
+      <c r="B56" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>98</v>
+      </c>
+      <c r="B58" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>23</v>
+      </c>
+      <c r="B59" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6</v>
+      </c>
+      <c r="B60" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37</v>
+      </c>
+      <c r="B63" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>21</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>27</v>
+      </c>
+      <c r="B67" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10</v>
+      </c>
+      <c r="B69" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37</v>
+      </c>
+      <c r="B70" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>61</v>
+      </c>
+      <c r="B71" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>24</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>24</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>45</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5713,7 +5233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5735,10 +5255,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -5746,7 +5266,487 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58</v>
+      </c>
+      <c r="B4" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B9" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>43</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>86</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>75</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>74</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63</v>
+      </c>
+      <c r="B16" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>74</v>
+      </c>
+      <c r="B17" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>69</v>
+      </c>
+      <c r="B18" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36</v>
+      </c>
+      <c r="B20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>44</v>
+      </c>
+      <c r="B21" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>46</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>46</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B24" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31</v>
+      </c>
+      <c r="B25" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54</v>
+      </c>
+      <c r="B26" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32</v>
+      </c>
+      <c r="B28" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37</v>
+      </c>
+      <c r="B32" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>44</v>
+      </c>
+      <c r="B35" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>46</v>
+      </c>
+      <c r="B36" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>49</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>51</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27</v>
+      </c>
+      <c r="B41" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27</v>
+      </c>
+      <c r="B42" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>46</v>
+      </c>
+      <c r="B44" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>51</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39</v>
+      </c>
+      <c r="B47" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39</v>
+      </c>
+      <c r="B48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62</v>
+      </c>
+      <c r="B49" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37</v>
+      </c>
+      <c r="B50" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54</v>
+      </c>
+      <c r="B51" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32</v>
+      </c>
+      <c r="B52" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34</v>
+      </c>
+      <c r="B53" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35</v>
+      </c>
+      <c r="B54" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>87</v>
+      </c>
+      <c r="B55" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>88</v>
+      </c>
+      <c r="B56" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>95</v>
+      </c>
+      <c r="B57" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>45</v>
+      </c>
+      <c r="B58" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56</v>
+      </c>
+      <c r="B59" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>24</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>95</v>
+      </c>
+      <c r="B62" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>28</v>
+      </c>
+      <c r="B63" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/CSV obtenidos/J4_heatmaps_jugadores.xlsx
+++ b/CSV obtenidos/J4_heatmaps_jugadores.xlsx
@@ -9,19 +9,19 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gabriel Costa" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sebastián Rodríguez" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Freytes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Serna" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hernán Barcos" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Freytes" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cecilio Waterman" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hernán Barcos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Serna" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Catriel Cabellos" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renzo Garces" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adrián Arregui" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aldair Fuentes" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Franco Zanelatto" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Moyano" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jesús Castillo" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Moyano" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ángel De la Cruz" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ricardo Lagos" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Franco Zanelatto" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ricardo Lagos" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ángel De la Cruz" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1037,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,26 +1059,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B2" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>85</v>
-      </c>
-      <c r="B4" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,18 +1241,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>85</v>
+      </c>
+      <c r="B4" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1269,6 +1269,429 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B3" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62</v>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44</v>
+      </c>
+      <c r="B7" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45</v>
+      </c>
+      <c r="B8" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>82</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>71</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>46</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67</v>
+      </c>
+      <c r="B12" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>94</v>
+      </c>
+      <c r="B13" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52</v>
+      </c>
+      <c r="B14" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>95</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>98</v>
+      </c>
+      <c r="B16" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39</v>
+      </c>
+      <c r="B19" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42</v>
+      </c>
+      <c r="B20" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45</v>
+      </c>
+      <c r="B22" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>89</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>99</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55</v>
+      </c>
+      <c r="B30" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55</v>
+      </c>
+      <c r="B31" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57</v>
+      </c>
+      <c r="B34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>89</v>
+      </c>
+      <c r="B35" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>25</v>
+      </c>
+      <c r="B36" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>93</v>
+      </c>
+      <c r="B37" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>99</v>
+      </c>
+      <c r="B38" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>70</v>
+      </c>
+      <c r="B39" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34</v>
+      </c>
+      <c r="B40" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>68</v>
+      </c>
+      <c r="B41" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>93</v>
+      </c>
+      <c r="B42" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>92</v>
+      </c>
+      <c r="B43" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>70</v>
+      </c>
+      <c r="B44" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>69</v>
+      </c>
+      <c r="B45" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>72</v>
+      </c>
+      <c r="B46" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57</v>
+      </c>
+      <c r="B47" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>80</v>
+      </c>
+      <c r="B48" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>89</v>
+      </c>
+      <c r="B49" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>30</v>
+      </c>
+      <c r="B50" t="n">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1660,429 +2083,6 @@
       </c>
       <c r="B47" t="n">
         <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B2" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>63</v>
-      </c>
-      <c r="B3" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>60</v>
-      </c>
-      <c r="B4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>62</v>
-      </c>
-      <c r="B5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>40</v>
-      </c>
-      <c r="B6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>44</v>
-      </c>
-      <c r="B7" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>45</v>
-      </c>
-      <c r="B8" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>82</v>
-      </c>
-      <c r="B9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>71</v>
-      </c>
-      <c r="B10" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>46</v>
-      </c>
-      <c r="B11" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>67</v>
-      </c>
-      <c r="B12" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>94</v>
-      </c>
-      <c r="B13" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>52</v>
-      </c>
-      <c r="B14" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>95</v>
-      </c>
-      <c r="B15" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>98</v>
-      </c>
-      <c r="B16" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>34</v>
-      </c>
-      <c r="B18" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>39</v>
-      </c>
-      <c r="B19" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>42</v>
-      </c>
-      <c r="B20" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>25</v>
-      </c>
-      <c r="B21" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>45</v>
-      </c>
-      <c r="B22" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>10</v>
-      </c>
-      <c r="B24" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>10</v>
-      </c>
-      <c r="B25" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>34</v>
-      </c>
-      <c r="B27" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>89</v>
-      </c>
-      <c r="B28" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>99</v>
-      </c>
-      <c r="B29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>55</v>
-      </c>
-      <c r="B30" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>55</v>
-      </c>
-      <c r="B31" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>33</v>
-      </c>
-      <c r="B32" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>29</v>
-      </c>
-      <c r="B33" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>57</v>
-      </c>
-      <c r="B34" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>89</v>
-      </c>
-      <c r="B35" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>25</v>
-      </c>
-      <c r="B36" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>93</v>
-      </c>
-      <c r="B37" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>99</v>
-      </c>
-      <c r="B38" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>70</v>
-      </c>
-      <c r="B39" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>34</v>
-      </c>
-      <c r="B40" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>68</v>
-      </c>
-      <c r="B41" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>93</v>
-      </c>
-      <c r="B42" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>92</v>
-      </c>
-      <c r="B43" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>70</v>
-      </c>
-      <c r="B44" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>69</v>
-      </c>
-      <c r="B45" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>72</v>
-      </c>
-      <c r="B46" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>57</v>
-      </c>
-      <c r="B47" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>80</v>
-      </c>
-      <c r="B48" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>89</v>
-      </c>
-      <c r="B49" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>30</v>
-      </c>
-      <c r="B50" t="n">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2583,6 +2583,373 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B3" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>76</v>
+      </c>
+      <c r="B4" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>83</v>
+      </c>
+      <c r="B5" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B6" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56</v>
+      </c>
+      <c r="B7" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>84</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>96</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>97</v>
+      </c>
+      <c r="B10" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>68</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>73</v>
+      </c>
+      <c r="B12" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>76</v>
+      </c>
+      <c r="B13" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>95</v>
+      </c>
+      <c r="B14" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>83</v>
+      </c>
+      <c r="B15" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>73</v>
+      </c>
+      <c r="B16" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>88</v>
+      </c>
+      <c r="B17" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63</v>
+      </c>
+      <c r="B18" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64</v>
+      </c>
+      <c r="B19" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>75</v>
+      </c>
+      <c r="B20" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>44</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>70</v>
+      </c>
+      <c r="B23" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63</v>
+      </c>
+      <c r="B24" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39</v>
+      </c>
+      <c r="B25" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63</v>
+      </c>
+      <c r="B26" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62</v>
+      </c>
+      <c r="B28" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>48</v>
+      </c>
+      <c r="B29" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57</v>
+      </c>
+      <c r="B30" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60</v>
+      </c>
+      <c r="B31" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>84</v>
+      </c>
+      <c r="B32" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62</v>
+      </c>
+      <c r="B33" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>73</v>
+      </c>
+      <c r="B34" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>49</v>
+      </c>
+      <c r="B35" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>71</v>
+      </c>
+      <c r="B36" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54</v>
+      </c>
+      <c r="B40" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>97</v>
+      </c>
+      <c r="B41" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>92</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>46</v>
+      </c>
+      <c r="B43" t="n">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3065,469 +3432,6 @@
       </c>
       <c r="B59" t="n">
         <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>93</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>97</v>
-      </c>
-      <c r="B3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B5" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>88</v>
-      </c>
-      <c r="B6" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>91</v>
-      </c>
-      <c r="B7" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>96</v>
-      </c>
-      <c r="B8" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>26</v>
-      </c>
-      <c r="B9" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>26</v>
-      </c>
-      <c r="B10" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>62</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>64</v>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>91</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>91</v>
-      </c>
-      <c r="B16" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>90</v>
-      </c>
-      <c r="B17" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>69</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>11</v>
-      </c>
-      <c r="B19" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>60</v>
-      </c>
-      <c r="B20" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>61</v>
-      </c>
-      <c r="B21" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>78</v>
-      </c>
-      <c r="B22" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>46</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>93</v>
-      </c>
-      <c r="B24" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>77</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>20</v>
-      </c>
-      <c r="B26" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>63</v>
-      </c>
-      <c r="B28" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>47</v>
-      </c>
-      <c r="B29" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>55</v>
-      </c>
-      <c r="B30" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>55</v>
-      </c>
-      <c r="B31" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>36</v>
-      </c>
-      <c r="B32" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>30</v>
-      </c>
-      <c r="B33" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>51</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>78</v>
-      </c>
-      <c r="B35" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>91</v>
-      </c>
-      <c r="B36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>79</v>
-      </c>
-      <c r="B37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>28</v>
-      </c>
-      <c r="B38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>61</v>
-      </c>
-      <c r="B39" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>43</v>
-      </c>
-      <c r="B40" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>61</v>
-      </c>
-      <c r="B41" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>53</v>
-      </c>
-      <c r="B42" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>22</v>
-      </c>
-      <c r="B43" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>20</v>
-      </c>
-      <c r="B44" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>69</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>41</v>
-      </c>
-      <c r="B47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>38</v>
-      </c>
-      <c r="B48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>30</v>
-      </c>
-      <c r="B49" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>56</v>
-      </c>
-      <c r="B50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>48</v>
-      </c>
-      <c r="B52" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>36</v>
-      </c>
-      <c r="B53" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>8</v>
-      </c>
-      <c r="B54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>8</v>
-      </c>
-      <c r="B55" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +3812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3930,338 +3834,434 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B3" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B5" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B8" t="n">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B15" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B16" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B18" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B20" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B24" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B31" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B33" t="n">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B34" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B35" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B36" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B42" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B43" t="n">
-        <v>27</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>22</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>69</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>30</v>
+      </c>
+      <c r="B49" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
